--- a/Lingyu Zhou/w4/4.2matching/audit_var_codebook_simple.xlsx
+++ b/Lingyu Zhou/w4/4.2matching/audit_var_codebook_simple.xlsx
@@ -191,7 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -248,6 +248,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -558,7 +561,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="5" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="113.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="113.7192857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="111.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="5" width="25.862142857142857" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="5" width="50.57642857142857" customWidth="1" bestFit="1"/>
@@ -585,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -599,7 +602,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -613,7 +616,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -627,7 +630,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -641,7 +644,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -657,7 +660,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -671,7 +674,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -687,7 +690,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -705,7 +708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -719,7 +722,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
@@ -733,7 +736,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
@@ -751,7 +754,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
@@ -765,7 +768,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="3" t="s">
         <v>47</v>
       </c>
